--- a/Result/5_fold_results.xlsx
+++ b/Result/5_fold_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\channelmatrix_2d\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3054FCDA-C3E7-4067-8BDB-67A860CA3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFE2F7-9079-465C-BAA0-9269C9901E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="de_LDS, res. 24, mod. MSCN_1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="59">
   <si>
     <t>Identifier</t>
   </si>
@@ -205,7 +205,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stereographic, cover</t>
+    <t>stereographic, superposition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orthographic, superposition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual, superposition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +245,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -287,8 +306,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,53 +623,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
       <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="Y1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,6 +743,7 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,779 +759,1454 @@
       <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>75.28689694547532</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.063169728386125</v>
+        <v>81.505895379717813</v>
       </c>
       <c r="D4">
-        <v>75.28689694547532</v>
+        <v>0.68059000686153015</v>
       </c>
       <c r="E4">
-        <v>70.095564853905699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81.505895379717813</v>
+      </c>
+      <c r="F4">
+        <v>78.277808734107865</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>70.36963987577748</v>
+      </c>
+      <c r="O4">
+        <v>1.846466446939689</v>
+      </c>
+      <c r="P4">
+        <v>70.36963987577748</v>
+      </c>
+      <c r="Q4">
+        <v>67.240113302196931</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>67.585273229007186</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1.8174302667163209</v>
+        <v>66.988382252441625</v>
       </c>
       <c r="D5">
-        <v>67.585273229007186</v>
+        <v>2.255053835112784</v>
       </c>
       <c r="E5">
-        <v>62.346774971036858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.988382252441625</v>
+      </c>
+      <c r="F5">
+        <v>60.264524976406904</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>83.489476552565336</v>
+      </c>
+      <c r="O5">
+        <v>1.005980883210486</v>
+      </c>
+      <c r="P5">
+        <v>83.489476552565336</v>
+      </c>
+      <c r="Q5">
+        <v>80.209329706045509</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>60.211247502141013</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.2564437529882531</v>
+        <v>78.227233799600342</v>
       </c>
       <c r="D6">
-        <v>60.211247502141013</v>
+        <v>3.0234476441323448</v>
       </c>
       <c r="E6">
-        <v>58.855529148691993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78.227233799600342</v>
+      </c>
+      <c r="F6">
+        <v>75.26324892756729</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>79.108210278635624</v>
+      </c>
+      <c r="O6">
+        <v>0.644480197132134</v>
+      </c>
+      <c r="P6">
+        <v>79.108210278635624</v>
+      </c>
+      <c r="Q6">
+        <v>78.063405800986999</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>56.96788034498568</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2.4721579391203701</v>
+        <v>65.578940994299245</v>
       </c>
       <c r="D7">
-        <v>56.96788034498568</v>
+        <v>1.4520463701281789</v>
       </c>
       <c r="E7">
-        <v>51.030779679808923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.578940994299245</v>
+      </c>
+      <c r="F7">
+        <v>57.291321993395329</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>74.574780058651029</v>
+      </c>
+      <c r="O7">
+        <v>1.1672695173840719</v>
+      </c>
+      <c r="P7">
+        <v>74.574780058651029</v>
+      </c>
+      <c r="Q7">
+        <v>71.440261385090025</v>
+      </c>
+      <c r="S7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>87.124888623604008</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.88060143685391579</v>
+        <v>82.709971539546189</v>
       </c>
       <c r="D8">
-        <v>87.124888623604008</v>
+        <v>0.66084540761363919</v>
       </c>
       <c r="E8">
-        <v>86.612251713756251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82.709971539546189</v>
+      </c>
+      <c r="F8">
+        <v>79.785343764156437</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>82.45374094931617</v>
+      </c>
+      <c r="O8">
+        <v>0.39241894507097952</v>
+      </c>
+      <c r="P8">
+        <v>82.45374094931617</v>
+      </c>
+      <c r="Q8">
+        <v>81.902158116792066</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>86.165191740412979</v>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>0.42322704689577217</v>
+        <v>79.48503014731962</v>
       </c>
       <c r="D9">
-        <v>86.165191740412979</v>
+        <v>0.53660592653711014</v>
       </c>
       <c r="E9">
-        <v>85.051067251191895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79.48503014731962</v>
+      </c>
+      <c r="F9">
+        <v>76.317947311436654</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>91.145165615619518</v>
+      </c>
+      <c r="O9">
+        <v>0.17633537302284219</v>
+      </c>
+      <c r="P9">
+        <v>91.145165615619518</v>
+      </c>
+      <c r="Q9">
+        <v>90.500391325844461</v>
+      </c>
+      <c r="S9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>82.79569892473117</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>0.85336149557815555</v>
+        <v>73.285668561146707</v>
       </c>
       <c r="D10">
-        <v>82.79569892473117</v>
+        <v>0.90108962724619523</v>
       </c>
       <c r="E10">
-        <v>80.736581025243282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73.285668561146707</v>
+      </c>
+      <c r="F10">
+        <v>69.029518820101742</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>88.619970760992743</v>
+      </c>
+      <c r="O10">
+        <v>0.51286263731350723</v>
+      </c>
+      <c r="P10">
+        <v>88.619970760992743</v>
+      </c>
+      <c r="Q10">
+        <v>86.651735662558877</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>83.556864678760206</v>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0.91667532795393547</v>
+        <v>73.73039559165737</v>
       </c>
       <c r="D11">
-        <v>83.556864678760206</v>
+        <v>2.0204356626626261</v>
       </c>
       <c r="E11">
-        <v>82.258305240555273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73.73039559165737</v>
+      </c>
+      <c r="F11">
+        <v>69.893334814289034</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>93.21533923303835</v>
+      </c>
+      <c r="O11">
+        <v>0.54286882220863208</v>
+      </c>
+      <c r="P11">
+        <v>93.21533923303835</v>
+      </c>
+      <c r="Q11">
+        <v>93.166116761592534</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>95.929203539823021</v>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>9.4587455289952924E-2</v>
+        <v>92.507374631268434</v>
       </c>
       <c r="D12">
-        <v>95.929203539823021</v>
+        <v>1.2685605645554461</v>
       </c>
       <c r="E12">
-        <v>95.860588723889379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92.507374631268434</v>
+      </c>
+      <c r="F12">
+        <v>90.395860843891569</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>91.36091142656943</v>
+      </c>
+      <c r="O12">
+        <v>0.62158128356746256</v>
+      </c>
+      <c r="P12">
+        <v>91.36091142656943</v>
+      </c>
+      <c r="Q12">
+        <v>89.038275558973027</v>
+      </c>
+      <c r="S12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>86.15714668812015</v>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>0.99008243617941871</v>
+        <v>91.508923087569968</v>
       </c>
       <c r="D13">
-        <v>86.15714668812015</v>
+        <v>0.18619492787425559</v>
       </c>
       <c r="E13">
-        <v>84.235701592883828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91.508923087569968</v>
+      </c>
+      <c r="F13">
+        <v>91.164542255988948</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>93.451327433628322</v>
+      </c>
+      <c r="O13">
+        <v>0.21395264565961961</v>
+      </c>
+      <c r="P13">
+        <v>93.451327433628322</v>
+      </c>
+      <c r="Q13">
+        <v>91.782934201513143</v>
+      </c>
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>83.583162484104534</v>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>0.4556750002857276</v>
+        <v>90.507184318203457</v>
       </c>
       <c r="D14">
-        <v>83.583162484104534</v>
+        <v>0.24159841192323109</v>
       </c>
       <c r="E14">
-        <v>83.434109224452683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90.507184318203457</v>
+      </c>
+      <c r="F14">
+        <v>89.897183668401183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>79.207173072431431</v>
+      </c>
+      <c r="O14">
+        <v>0.7172926628969738</v>
+      </c>
+      <c r="P14">
+        <v>79.207173072431431</v>
+      </c>
+      <c r="Q14">
+        <v>76.502521217761938</v>
+      </c>
+      <c r="S14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>91.814981098452407</v>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>0.18842661175003739</v>
+        <v>88.657081808666163</v>
       </c>
       <c r="D15">
-        <v>91.814981098452407</v>
+        <v>0.23256953788610801</v>
       </c>
       <c r="E15">
-        <v>91.688704571762571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88.657081808666163</v>
+      </c>
+      <c r="F15">
+        <v>88.170669936607496</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>97.935103244837748</v>
+      </c>
+      <c r="O15">
+        <v>9.2688256334913399E-2</v>
+      </c>
+      <c r="P15">
+        <v>97.935103244837748</v>
+      </c>
+      <c r="Q15">
+        <v>97.928635379690959</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>84.749262536873147</v>
+      <c r="B16" t="s">
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>0.63104624593458225</v>
+        <v>84.267856988382249</v>
       </c>
       <c r="D16">
-        <v>84.749262536873147</v>
+        <v>0.51252539181002699</v>
       </c>
       <c r="E16">
-        <v>81.175025834331947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84.267856988382249</v>
+      </c>
+      <c r="F16">
+        <v>83.875257401417997</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>91.78046522893797</v>
+      </c>
+      <c r="O16">
+        <v>0.2401224850215537</v>
+      </c>
+      <c r="P16">
+        <v>91.78046522893797</v>
+      </c>
+      <c r="Q16">
+        <v>91.554714046767728</v>
+      </c>
+      <c r="S16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>76.838034931098008</v>
+      <c r="B17" t="s">
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>0.8730015814253409</v>
+        <v>91.801313160148439</v>
       </c>
       <c r="D17">
-        <v>76.838034931098008</v>
+        <v>0.22126457155439569</v>
       </c>
       <c r="E17">
-        <v>74.338092784104234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91.801313160148439</v>
+      </c>
+      <c r="F17">
+        <v>90.592271507422055</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17">
+        <v>80.471976401179944</v>
+      </c>
+      <c r="O17">
+        <v>1.028380981857026</v>
+      </c>
+      <c r="P17">
+        <v>80.471976401179944</v>
+      </c>
+      <c r="Q17">
+        <v>77.488343944522626</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>80.884955752212392</v>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>0.88655208232998073</v>
+        <v>83.30383480825958</v>
       </c>
       <c r="D18">
-        <v>80.884955752212392</v>
+        <v>0.99110748722374031</v>
       </c>
       <c r="E18">
-        <v>77.936479304750563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83.30383480825958</v>
+      </c>
+      <c r="F18">
+        <v>80.036110705999434</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>75.774703933425045</v>
+      </c>
+      <c r="O18">
+        <v>0.76229502858770948</v>
+      </c>
+      <c r="P18">
+        <v>75.774703933425045</v>
+      </c>
+      <c r="Q18">
+        <v>73.87346781581536</v>
+      </c>
+      <c r="S18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>81.125096237856738</v>
-      </c>
-      <c r="C19">
-        <v>2.4634613122430862</v>
-      </c>
-      <c r="D19">
-        <v>81.125096237856738</v>
-      </c>
-      <c r="E19">
-        <v>77.462190963290723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>83.009541605031174</v>
+      </c>
+      <c r="O19">
+        <v>0.47096447384103418</v>
+      </c>
+      <c r="P19">
+        <v>83.009541605031174</v>
+      </c>
+      <c r="Q19">
+        <v>82.165934144839085</v>
+      </c>
+      <c r="S19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>94.631268436578168</v>
-      </c>
-      <c r="C20">
-        <v>0.11644345068949261</v>
-      </c>
-      <c r="D20">
-        <v>94.631268436578168</v>
-      </c>
-      <c r="E20">
-        <v>94.437942949748773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>91.304077024887761</v>
+      </c>
+      <c r="O20">
+        <v>0.21544916873427461</v>
+      </c>
+      <c r="P20">
+        <v>91.304077024887761</v>
+      </c>
+      <c r="Q20">
+        <v>89.257103079384905</v>
+      </c>
+      <c r="S20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>86.342788432425891</v>
-      </c>
-      <c r="C21">
-        <v>0.84206223968736826</v>
-      </c>
-      <c r="D21">
-        <v>86.342788432425891</v>
-      </c>
-      <c r="E21">
-        <v>83.68928914042597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>92.953658768674472</v>
+      </c>
+      <c r="O21">
+        <v>0.2278611856572671</v>
+      </c>
+      <c r="P21">
+        <v>92.953658768674472</v>
+      </c>
+      <c r="Q21">
+        <v>92.002928496950403</v>
+      </c>
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>81.771814635074705</v>
-      </c>
-      <c r="C22">
-        <v>2.2531779963824028</v>
-      </c>
-      <c r="D22">
-        <v>81.771814635074705</v>
-      </c>
-      <c r="E22">
-        <v>78.531709715004652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>93.839998615904989</v>
+      </c>
+      <c r="O22">
+        <v>0.22302419124905939</v>
+      </c>
+      <c r="P22">
+        <v>93.839998615904989</v>
+      </c>
+      <c r="Q22">
+        <v>93.823946495039237</v>
+      </c>
+      <c r="S22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>98.318584070796462</v>
-      </c>
-      <c r="C23">
-        <v>2.7892661997534571E-2</v>
-      </c>
-      <c r="D23">
-        <v>98.318584070796462</v>
-      </c>
-      <c r="E23">
-        <v>98.248064025754474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23">
+        <v>95.339233038348084</v>
+      </c>
+      <c r="O23">
+        <v>0.16918048121490489</v>
+      </c>
+      <c r="P23">
+        <v>95.339233038348084</v>
+      </c>
+      <c r="Q23">
+        <v>95.12090380135335</v>
+      </c>
+      <c r="S23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>78.942637912092664</v>
-      </c>
-      <c r="C24">
-        <v>1.180178621649066</v>
-      </c>
-      <c r="D24">
-        <v>78.942637912092664</v>
-      </c>
-      <c r="E24">
-        <v>76.851868565639208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>84.785422019221613</v>
+      </c>
+      <c r="O24">
+        <v>0.71233222224564918</v>
+      </c>
+      <c r="P24">
+        <v>84.785422019221613</v>
+      </c>
+      <c r="Q24">
+        <v>81.800335829513372</v>
+      </c>
+      <c r="S24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>89.207519096185962</v>
-      </c>
-      <c r="C25">
-        <v>0.91043952207777079</v>
-      </c>
-      <c r="D25">
-        <v>89.207519096185962</v>
-      </c>
-      <c r="E25">
-        <v>86.399807726198816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <v>87.378783553490948</v>
+      </c>
+      <c r="O25">
+        <v>0.82389028304928336</v>
+      </c>
+      <c r="P25">
+        <v>87.378783553490948</v>
+      </c>
+      <c r="Q25">
+        <v>84.26740287918777</v>
+      </c>
+      <c r="S25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>89.830275348402665</v>
-      </c>
-      <c r="C26">
-        <v>0.48822862926544042</v>
-      </c>
-      <c r="D26">
-        <v>89.830275348402665</v>
-      </c>
-      <c r="E26">
-        <v>89.258811492778463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>97.876106194690266</v>
+      </c>
+      <c r="O26">
+        <v>0.11931498056855599</v>
+      </c>
+      <c r="P26">
+        <v>97.876106194690266</v>
+      </c>
+      <c r="Q26">
+        <v>97.846635897870186</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>90.035380928900764</v>
-      </c>
-      <c r="C27">
-        <v>0.36424107524150978</v>
-      </c>
-      <c r="D27">
-        <v>90.035380928900764</v>
-      </c>
-      <c r="E27">
-        <v>89.386251313563122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>96.371681415929203</v>
+      </c>
+      <c r="O27">
+        <v>0.13369629540720679</v>
+      </c>
+      <c r="P27">
+        <v>96.371681415929203</v>
+      </c>
+      <c r="Q27">
+        <v>96.125321986534871</v>
+      </c>
+      <c r="S27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>89.770932274500638</v>
-      </c>
-      <c r="C28">
-        <v>0.25997780280496507</v>
-      </c>
-      <c r="D28">
-        <v>89.770932274500638</v>
-      </c>
-      <c r="E28">
-        <v>89.210705211170009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>94.21828908554572</v>
+      </c>
+      <c r="O28">
+        <v>0.19356572164659719</v>
+      </c>
+      <c r="P28">
+        <v>94.21828908554572</v>
+      </c>
+      <c r="Q28">
+        <v>93.414503771455728</v>
+      </c>
+      <c r="S28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>84.601769911504419</v>
-      </c>
-      <c r="C29">
-        <v>1.268412175795216</v>
-      </c>
-      <c r="D29">
-        <v>84.601769911504419</v>
-      </c>
-      <c r="E29">
-        <v>83.021144827486879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>96.017699115044252</v>
+      </c>
+      <c r="O29">
+        <v>8.4054031885872363E-2</v>
+      </c>
+      <c r="P29">
+        <v>96.017699115044252</v>
+      </c>
+      <c r="Q29">
+        <v>96.033036276179729</v>
+      </c>
+      <c r="S29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
-        <v>91.239197570913234</v>
-      </c>
-      <c r="C30">
-        <v>0.2409813348756169</v>
-      </c>
-      <c r="D30">
-        <v>91.239197570913234</v>
-      </c>
-      <c r="E30">
-        <v>91.179563935375782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>95.794513793371905</v>
+      </c>
+      <c r="O30">
+        <v>7.9042650228287187E-2</v>
+      </c>
+      <c r="P30">
+        <v>95.794513793371905</v>
+      </c>
+      <c r="Q30">
+        <v>95.74947635212132</v>
+      </c>
+      <c r="S30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
-        <v>70.661164888969637</v>
-      </c>
-      <c r="C31">
-        <v>1.075709743431071</v>
-      </c>
-      <c r="D31">
-        <v>70.661164888969637</v>
-      </c>
-      <c r="E31">
-        <v>68.353498227772505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>86.593569148522036</v>
+      </c>
+      <c r="O31">
+        <v>0.37321560502808399</v>
+      </c>
+      <c r="P31">
+        <v>86.593569148522036</v>
+      </c>
+      <c r="Q31">
+        <v>85.770082602412614</v>
+      </c>
+      <c r="S31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>82.455730585904718</v>
-      </c>
-      <c r="C32">
-        <v>0.49892838677773538</v>
-      </c>
-      <c r="D32">
-        <v>82.455730585904718</v>
-      </c>
-      <c r="E32">
-        <v>79.902523232728498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>93.577799115909301</v>
+      </c>
+      <c r="O32">
+        <v>0.14915723614540091</v>
+      </c>
+      <c r="P32">
+        <v>93.577799115909301</v>
+      </c>
+      <c r="Q32">
+        <v>92.901862238890601</v>
+      </c>
+      <c r="S32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>79.473957387174636</v>
-      </c>
-      <c r="C33">
-        <v>0.65536082161657983</v>
-      </c>
-      <c r="D33">
-        <v>79.473957387174636</v>
-      </c>
-      <c r="E33">
-        <v>77.570928643483256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>80.803986193652193</v>
+      </c>
+      <c r="O33">
+        <v>0.55515370261951946</v>
+      </c>
+      <c r="P33">
+        <v>80.803986193652193</v>
+      </c>
+      <c r="Q33">
+        <v>78.536930660029867</v>
+      </c>
+      <c r="S33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>88.207510445592078</v>
-      </c>
-      <c r="C34">
-        <v>0.25549152765019773</v>
-      </c>
-      <c r="D34">
-        <v>88.207510445592078</v>
-      </c>
-      <c r="E34">
-        <v>87.769487230048881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34">
+        <v>93.988529312537295</v>
+      </c>
+      <c r="O34">
+        <v>0.15232570019748451</v>
+      </c>
+      <c r="P34">
+        <v>93.988529312537295</v>
+      </c>
+      <c r="Q34">
+        <v>93.741629491854638</v>
+      </c>
+      <c r="S34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>89.837195823493289</v>
-      </c>
-      <c r="C35">
-        <v>0.25957670932757149</v>
-      </c>
-      <c r="D35">
-        <v>89.837195823493289</v>
-      </c>
-      <c r="E35">
-        <v>89.675215730277941</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>97.758112094395273</v>
+      </c>
+      <c r="O35">
+        <v>3.6342321272051233E-2</v>
+      </c>
+      <c r="P35">
+        <v>97.758112094395273</v>
+      </c>
+      <c r="Q35">
+        <v>97.736638130995658</v>
+      </c>
+      <c r="S35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>92.713864306784657</v>
-      </c>
-      <c r="C36">
-        <v>0.20099206703598141</v>
-      </c>
-      <c r="D36">
-        <v>92.713864306784657</v>
-      </c>
-      <c r="E36">
-        <v>92.564922957904088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="O36">
+        <v>3.751931424974409E-3</v>
+      </c>
+      <c r="P36">
+        <v>100</v>
+      </c>
+      <c r="Q36">
+        <v>100</v>
+      </c>
+      <c r="S36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>85.651346464934818</v>
-      </c>
-      <c r="C37">
-        <v>0.38305839095301047</v>
-      </c>
-      <c r="D37">
-        <v>85.651346464934818</v>
-      </c>
-      <c r="E37">
-        <v>84.44793752940879</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="O37">
+        <v>0.16919991192736439</v>
+      </c>
+      <c r="P37">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="Q37">
+        <v>91.878874067958407</v>
+      </c>
+      <c r="S37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>74.4053149248696</v>
-      </c>
-      <c r="C38">
-        <v>1.0906258246465761</v>
-      </c>
-      <c r="D38">
-        <v>74.4053149248696</v>
-      </c>
-      <c r="E38">
-        <v>70.989382685673604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38">
+        <v>91.504424778761063</v>
+      </c>
+      <c r="O38">
+        <v>1.0378182485001159</v>
+      </c>
+      <c r="P38">
+        <v>91.504424778761063</v>
+      </c>
+      <c r="Q38">
+        <v>89.259324396755204</v>
+      </c>
+      <c r="S38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>93.480998970579336</v>
-      </c>
-      <c r="C39">
-        <v>0.18912237586628269</v>
-      </c>
-      <c r="D39">
-        <v>93.480998970579336</v>
-      </c>
-      <c r="E39">
-        <v>92.914588375345289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>91.958840474398556</v>
+      </c>
+      <c r="O39">
+        <v>0.41669228301169792</v>
+      </c>
+      <c r="P39">
+        <v>91.958840474398556</v>
+      </c>
+      <c r="Q39">
+        <v>91.771303832362122</v>
+      </c>
+      <c r="S39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>92.397166065450392</v>
-      </c>
-      <c r="C40">
-        <v>0.20002585920340341</v>
-      </c>
-      <c r="D40">
-        <v>92.397166065450392</v>
-      </c>
-      <c r="E40">
-        <v>92.221261732222459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40">
+        <v>90.948624123046045</v>
+      </c>
+      <c r="O40">
+        <v>1.6100652842743599</v>
+      </c>
+      <c r="P40">
+        <v>90.948624123046045</v>
+      </c>
+      <c r="Q40">
+        <v>89.614203372266019</v>
+      </c>
+      <c r="S40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>96.795560515229369</v>
-      </c>
-      <c r="C41">
-        <v>0.1343557996404286</v>
-      </c>
-      <c r="D41">
-        <v>96.795560515229369</v>
-      </c>
-      <c r="E41">
-        <v>96.791150623894922</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41">
+        <v>95.840707964601762</v>
+      </c>
+      <c r="O41">
+        <v>5.900670353205436E-2</v>
+      </c>
+      <c r="P41">
+        <v>95.840707964601762</v>
+      </c>
+      <c r="Q41">
+        <v>95.461153318311048</v>
+      </c>
+      <c r="S41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>95.346326525315959</v>
-      </c>
-      <c r="C42">
-        <v>0.10742809974467871</v>
-      </c>
-      <c r="D42">
-        <v>95.346326525315959</v>
-      </c>
-      <c r="E42">
-        <v>95.236031193917341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>97.411742316110008</v>
+      </c>
+      <c r="O42">
+        <v>4.8294363674841627E-2</v>
+      </c>
+      <c r="P42">
+        <v>97.411742316110008</v>
+      </c>
+      <c r="Q42">
+        <v>97.378224587742125</v>
+      </c>
+      <c r="S42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>87.377399458472809</v>
-      </c>
-      <c r="C43">
-        <v>0.30928167477081131</v>
-      </c>
-      <c r="D43">
-        <v>87.377399458472809</v>
-      </c>
-      <c r="E43">
-        <v>86.104620340887266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43">
+        <v>87.666069775690104</v>
+      </c>
+      <c r="O43">
+        <v>0.59405137330648938</v>
+      </c>
+      <c r="P43">
+        <v>87.666069775690104</v>
+      </c>
+      <c r="Q43">
+        <v>85.087415239409808</v>
+      </c>
+      <c r="S43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>77.69911504424779</v>
-      </c>
-      <c r="C44">
-        <v>1.101793052675506</v>
-      </c>
-      <c r="D44">
-        <v>77.69911504424779</v>
-      </c>
-      <c r="E44">
-        <v>75.51950905985224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44">
+        <v>89.970501474926252</v>
+      </c>
+      <c r="O44">
+        <v>0.43621017376685439</v>
+      </c>
+      <c r="P44">
+        <v>89.970501474926252</v>
+      </c>
+      <c r="Q44">
+        <v>89.320255531738113</v>
+      </c>
+      <c r="S44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>87.758285106272552</v>
-      </c>
-      <c r="C45">
-        <v>0.99673984841811425</v>
-      </c>
-      <c r="D45">
-        <v>87.758285106272552</v>
-      </c>
-      <c r="E45">
-        <v>86.587439930753916</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45">
+        <v>90.335729547833466</v>
+      </c>
+      <c r="O45">
+        <v>0.26314037424177927</v>
+      </c>
+      <c r="P45">
+        <v>90.335729547833466</v>
+      </c>
+      <c r="Q45">
+        <v>89.085553257157628</v>
+      </c>
+      <c r="S45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>97.16814159292035</v>
-      </c>
-      <c r="C46">
-        <v>4.3081979082376168E-2</v>
-      </c>
-      <c r="D46">
-        <v>97.16814159292035</v>
-      </c>
-      <c r="E46">
-        <v>97.034894730711329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46">
+        <v>89.321533923303832</v>
+      </c>
+      <c r="O46">
+        <v>0.40064483674676171</v>
+      </c>
+      <c r="P46">
+        <v>89.321533923303832</v>
+      </c>
+      <c r="Q46">
+        <v>87.861064414766673</v>
+      </c>
+      <c r="S46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>88.385539667298161</v>
-      </c>
-      <c r="C47">
-        <v>0.38353751527966112</v>
-      </c>
-      <c r="D47">
-        <v>88.385539667298161</v>
-      </c>
-      <c r="E47">
-        <v>87.232099359031253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47">
+        <v>98.146091229162877</v>
+      </c>
+      <c r="O47">
+        <v>3.3016636762765707E-2</v>
+      </c>
+      <c r="P47">
+        <v>98.146091229162877</v>
+      </c>
+      <c r="Q47">
+        <v>98.123798542346776</v>
+      </c>
+      <c r="S47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>97.917888563049857</v>
-      </c>
-      <c r="C48">
-        <v>0.1107599679195545</v>
-      </c>
-      <c r="D48">
-        <v>97.917888563049857</v>
-      </c>
-      <c r="E48">
-        <v>97.883793375997072</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
+      <c r="M48" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="O48">
+        <v>0.40569630887253633</v>
+      </c>
+      <c r="P48">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="Q48">
+        <v>90.829273614555404</v>
+      </c>
+      <c r="S48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="e">
         <f>AVERAGE(B4:B48)</f>
-        <v>85.182232449146539</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G49" t="s">
         <v>50</v>
@@ -1450,13 +2215,40 @@
         <f>AVERAGE(H4:H48)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N49">
+        <f>AVERAGE(N4:N48)</f>
+        <v>89.876186933566316</v>
+      </c>
+      <c r="S49" t="s">
+        <v>50</v>
+      </c>
+      <c r="T49" t="e">
+        <f>AVERAGE(T4:T48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z49" t="e">
+        <f>AVERAGE(Z4:Z48)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
